--- a/Document/贪吃蛇计划.xlsx
+++ b/Document/贪吃蛇计划.xlsx
@@ -669,23 +669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>客户端网络模块开发</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（6月15日）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>占比（客户端工作量）20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -776,13 +759,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
+    <t>客户端网络模块开发（6月15日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -792,8 +788,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="134"/>
@@ -802,8 +799,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -812,20 +810,43 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>username*sexid*wechatid,channelid:channelid} ——&gt;
-{Result:Succeed,PlayerId:XXXXXXX}
-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+{Result:Succeed,PlayerId:XXXXXXX}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -835,8 +856,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="134"/>
@@ -846,8 +868,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -856,8 +879,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="134"/>
@@ -866,8 +890,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -876,19 +901,42 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>username*sexid*wechatid,Score:XXXXX,SnakeHead:{PointX:x,PointY:y,oritation:r}},{...}]}
-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>username*sexid*wechatid,Score:XXXXX,SnakeHead:{PointX:x,PointY:y,oritation:r}},{...}]}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -898,8 +946,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="134"/>
@@ -908,8 +957,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -918,19 +968,42 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>username*sexid*wechatid,channelid:channelid}
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>username*sexid*wechatid,channelid:channelid}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -940,14 +1013,25 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{route:onCreateRoom}——&gt;
-{Result:Succeed,channeid:channelid}
+{Result:Succeed,channeid:channelid}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 5</t>
     </r>
     <r>
@@ -1140,7 +1224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1222,6 +1306,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1520,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1586,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>16</v>
@@ -1614,15 +1707,15 @@
     </row>
     <row r="5" spans="1:7" ht="27">
       <c r="A5" s="27"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
-        <v>63</v>
+      <c r="C5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="23"/>
@@ -1749,7 +1842,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -1862,13 +1955,13 @@
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="23"/>
@@ -1877,7 +1970,7 @@
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>36</v>
@@ -1892,7 +1985,7 @@
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>37</v>
@@ -1907,7 +2000,7 @@
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>38</v>
@@ -1922,7 +2015,7 @@
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -1931,7 +2024,7 @@
     </row>
     <row r="26" spans="1:7" ht="41.25" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>

--- a/Document/贪吃蛇计划.xlsx
+++ b/Document/贪吃蛇计划.xlsx
@@ -335,23 +335,6 @@
     <t>圆角矩形</t>
   </si>
   <si>
-    <r>
-      <t>客户端进展：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,8 +423,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>服务器端：</t>
+    <t>网络模块开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比（客户端工作量）20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比（客户端工作量）10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇杆背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜地板背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇杆中圆形B可以活动的范围</t>
+  </si>
+  <si>
+    <t>半透明圆形，半径200</t>
+  </si>
+  <si>
+    <r>
+      <t>按钮ABCD</t>
     </r>
     <r>
       <rPr>
@@ -452,8 +465,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>20%</t>
-    </r>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术进展：100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源完成度100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端网络模块开发（6月15日）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -599,45 +624,219 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、服务器选择</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pomelo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架，存在问题：需要熟悉这套框架</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、服务器选择</t>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pomelo</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、参与人员都是非全日制进行，进展缓慢</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、玩家登录（登录完成后直接进去房间）：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{route:onLogin,uid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>username,channelid:channelid} ——&gt;
+{Result:Succeed,PlayerId:XXXXXXX} (Finished)
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、玩家进入房间（在房间里申请创建蛇）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{route:onEnterRoom,uid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>username,channelid:channelid} ——&gt;
+{Result:Succeed,PlayerId:XXXXXXX} (Finished)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">框架，存在问题：需要熟悉这套框架
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、心跳同步：
 </t>
     </r>
     <r>
@@ -649,7 +848,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
+      <t>{route:onTickUpdate}——&gt;
+{Result:Succeed,PlayerInfos:[{uid</t>
     </r>
     <r>
       <rPr>
@@ -660,59 +860,251 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、参与人员都是非全日制进行，进展缓慢</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络模块开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占比（客户端工作量）20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占比（客户端工作量）10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇杆背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜地板背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇杆中圆形B可以活动的范围</t>
-  </si>
-  <si>
-    <t>半透明圆形，半径200</t>
-  </si>
-  <si>
-    <r>
-      <t>按钮ABCD</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术进展：100%</t>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>username*sexid*wechatid,Score:XXXXX,SnakeHead:{PointX:x,PointY:y,oritation:r}},{uid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>username*sexid*wechatid,Score:XXXXX,SnakeHead:{PointX:x,PointY:y,oritation:r}},{...}]}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、玩家离开（玩家退出房间）：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{route:onLeave,uid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>username,channelid:channelid}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、创建房间（屏幕客户端创建房间）
+不再实现创建房间消息，游戏展示页面作为一个客户端登录时直接创建房间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、玩家操作（手柄客户端操作控制贪吃蛇移动）：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{route:onOperation:{x:x,y:y,distance:distance,r:r},btnA:false,btnB:false}——&gt;
+{Result:Succeed}(Finished)
+7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、蛇碰到墙或者其他蛇时失败，通知</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GameController</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">失败
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{route:onSnakeDead,username:'username'}——&gt;
+{Result:Succeed}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服务器端：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40%</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -750,311 +1142,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>整体工作进展：40%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源完成度100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端网络模块开发（6月15日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、玩家登录（登录完成后直接进去房间）：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{route:onLogin,uid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>username*sexid*wechatid,channelid:channelid} ——&gt;
-{Result:Succeed,PlayerId:XXXXXXX}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>整体工作进展：70%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户端进展：</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、心跳同步：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{route:onTickUpdate}——&gt;
-{Result:Succeed,PlayerInfos:[{uid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>username*sexid*wechatid,Score:XXXXX,SnakeHead:{PointX:x,PointY:y,oritation:r}},{uid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>username*sexid*wechatid,Score:XXXXX,SnakeHead:{PointX:x,PointY:y,oritation:r}},{...}]}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、玩家离开（玩家退出房间）：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{route:onLeave,uid</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>username*sexid*wechatid,channelid:channelid}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、创建房间（屏幕客户端创建房间）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{route:onCreateRoom}——&gt;
-{Result:Succeed,channeid:channelid}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、玩家操作（手柄客户端操作控制贪吃蛇移动）：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{route:onOperation:{x:x,y:y,distance:distance,r:r},btnA:false,btnB:false}——&gt;
-{Result:Succeed}</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>70%</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1063,7 +1168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,6 +1247,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1271,6 +1383,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1306,15 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1613,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1647,28 +1759,28 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="149.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="121.5">
-      <c r="A3" s="27"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1679,49 +1791,49 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="27">
-      <c r="A4" s="27"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="27">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30" t="s">
-        <v>62</v>
+      <c r="A5" s="30"/>
+      <c r="B5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="27">
-      <c r="A6" s="27"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1733,20 +1845,20 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="23"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="94.5">
       <c r="A8" s="8" t="s">
@@ -1756,18 +1868,18 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" ht="40.5">
       <c r="A9" s="8"/>
@@ -1782,7 +1894,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8"/>
@@ -1795,20 +1907,20 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" ht="299.25">
+      <c r="B11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="397.5">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -1819,17 +1931,17 @@
         <v>8</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1839,16 +1951,16 @@
         <v>33</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="23"/>
+        <v>50</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="27" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1856,89 +1968,89 @@
         <v>34</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="23"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="23"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="23"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="23"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="27">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="12" t="s">
         <v>32</v>
       </c>
@@ -1946,31 +2058,31 @@
         <v>35</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="23"/>
+        <v>54</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>36</v>
@@ -1978,14 +2090,14 @@
       <c r="E22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="23"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>37</v>
@@ -1993,14 +2105,14 @@
       <c r="E23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="23"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>38</v>
@@ -2008,30 +2120,30 @@
       <c r="E24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="23"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="A26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="30" spans="1:7">
       <c r="D30" s="1"/>
